--- a/karnaugh-map.xlsx
+++ b/karnaugh-map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mentoring\Vania Agnes\fsm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vania\University\Scientific Computing\vending-machine-fsm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A60E5C7-9A6C-4E6B-98EA-C8E97788AC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E8E4C1-7930-453E-BB3B-6138B2E8C9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{06020ED4-C256-44D6-A69E-037E1B4B2FE2}"/>
+    <workbookView xWindow="156" yWindow="1596" windowWidth="22992" windowHeight="8880" xr2:uid="{06020ED4-C256-44D6-A69E-037E1B4B2FE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,16 +50,16 @@
     <t>X</t>
   </si>
   <si>
-    <t>S = DI' QI' Q1C + DI' QI Q0C + DI QI Q1C</t>
+    <t>isCokeDispensed = DI' QI QC1 + DI QI'</t>
   </si>
   <si>
-    <t>S = DI' QI' Q0C + DI QI Q0C + DI' QI Q1C' Q0C'</t>
+    <t>isChangeGiven = DI QI'</t>
   </si>
   <si>
-    <t>S = DI' QI QC1 + DI QI'</t>
+    <t>Q0N = DI' QI' Q0C + DI QI Q0C + DI' QI Q1C' Q0C'</t>
   </si>
   <si>
-    <t>S = DI QI'</t>
+    <t>Q1N = DI' QI' Q1C + DI' QI Q0C + DI QI Q1C</t>
   </si>
 </sst>
 </file>
@@ -1940,7 +1940,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1950,17 +1950,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8AC066-71E1-4E1E-ACD9-35F3ED604A69}">
   <dimension ref="D4:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="4.85546875" customWidth="1"/>
-    <col min="10" max="10" width="41.7109375" customWidth="1"/>
+    <col min="1" max="9" width="4.88671875" customWidth="1"/>
+    <col min="10" max="10" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:10" x14ac:dyDescent="0.3">
       <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:10" x14ac:dyDescent="0.3">
       <c r="E13" s="2" t="s">
         <v>0</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
         <v>0</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D15" s="2" t="s">
         <v>1</v>
       </c>
@@ -2093,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D16" s="2" t="s">
         <v>2</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
         <v>3</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:10" x14ac:dyDescent="0.3">
       <c r="E22" s="2" t="s">
         <v>0</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D23" s="2" t="s">
         <v>0</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D24" s="2" t="s">
         <v>1</v>
       </c>
@@ -2178,10 +2178,10 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D25" s="2" t="s">
         <v>2</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D26" s="2" t="s">
         <v>3</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:10" x14ac:dyDescent="0.3">
       <c r="E31" s="2" t="s">
         <v>0</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D32" s="2" t="s">
         <v>0</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D33" s="2" t="s">
         <v>1</v>
       </c>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D34" s="2" t="s">
         <v>2</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D35" s="2" t="s">
         <v>3</v>
       </c>
